--- a/Mixer Board/TS3A5017-Mixer/Manufacture/TS3A5017-Mixer-top-pos.xlsx
+++ b/Mixer Board/TS3A5017-Mixer/Manufacture/TS3A5017-Mixer-top-pos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brokebit/Sync/KiCad/SDR-Learning-Project/Mixer Board/TS3A5017-Mixer/Manufacture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3999924-DB86-5842-AEDC-37D0225DBA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD000021-DAAD-0E49-935E-BD38FAE15112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66480" yWindow="9240" windowWidth="27640" windowHeight="16940" xr2:uid="{D52790FC-0E09-7843-AA5D-8944098BD820}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="18780" windowHeight="18200" xr2:uid="{D52790FC-0E09-7843-AA5D-8944098BD820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{8A6A6B7A-6027-7146-B301-EDB182657F5E}" name="TS3A5017-Mixer-top-pos" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/brokebit/Sync/KiCad/SDR-Learning-Project/Mixer Board/TS3A5017-Mixer/Manufacture/TS3A5017-Mixer-top-pos.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/brokebit/Sync/KiCad/SDR-Learning-Project/Mixer Board/TS3A5017-Mixer/Manufacture/TS3A5017-Mixer-top-pos.csv" tab="0" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>C1</t>
   </si>
@@ -93,6 +93,51 @@
   </si>
   <si>
     <t>Rotation</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
 </sst>
 </file>
@@ -468,17 +513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98520362-E408-0744-A42D-C00C5CC5BB9F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -520,16 +565,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>144.864666</v>
+        <v>152.4</v>
       </c>
       <c r="C3">
-        <v>-99.822000000000003</v>
+        <v>-89.153999999999996</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -537,16 +582,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>141.22399999999999</v>
+        <v>153.416</v>
       </c>
       <c r="C4">
-        <v>-99.822000000000003</v>
+        <v>-88.138000000000005</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -554,16 +599,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>148.50533200000001</v>
+        <v>142.42580799999999</v>
       </c>
       <c r="C5">
-        <v>-99.870999999999995</v>
+        <v>-85.854731000000001</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -571,32 +616,287 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>152.14599999999999</v>
+        <v>143.44055299999999</v>
       </c>
       <c r="C6">
-        <v>-99.870999999999995</v>
+        <v>-84.705501999999996</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>140.11699999999999</v>
+      </c>
+      <c r="C7">
+        <v>-98.486000000000004</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>142.65700000000001</v>
+      </c>
+      <c r="C8">
+        <v>-99.567999999999998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>141.19900000000001</v>
+      </c>
+      <c r="C9">
+        <v>-94.995999999999995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>144.18100000000001</v>
+      </c>
+      <c r="C10">
+        <v>-94.995999999999995</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>147.99100000000001</v>
+      </c>
+      <c r="C11">
+        <v>-98.552000000000007</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>152.05500000000001</v>
+      </c>
+      <c r="C12">
+        <v>-94.995999999999995</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>149.00700000000001</v>
+      </c>
+      <c r="C13">
+        <v>-94.995999999999995</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>150.27699999999999</v>
+      </c>
+      <c r="C14">
+        <v>-100.584</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>157.38900000000001</v>
+      </c>
+      <c r="C15">
+        <v>-98.298000000000002</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>153.16200000000001</v>
+      </c>
+      <c r="C16">
+        <v>-103.63200000000001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>159.31</v>
+      </c>
+      <c r="C17">
+        <v>-108.816</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>142.65700000000001</v>
+      </c>
+      <c r="C18">
+        <v>-100.584</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>150.27699999999999</v>
+      </c>
+      <c r="C19">
+        <v>-99.567999999999998</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B20">
         <v>146.78700000000001</v>
       </c>
-      <c r="C7">
+      <c r="C20">
         <v>-87.870999999999995</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>142.65700000000001</v>
+      </c>
+      <c r="C21">
+        <v>-97.281999999999996</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>150.50649999999999</v>
+      </c>
+      <c r="C22">
+        <v>-97.215999999999994</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>180</v>
       </c>
     </row>
